--- a/homework-excel.xlsx
+++ b/homework-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\okyan\Desktop\Yeni klasör\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26AAFFBA-9389-40EE-9CA0-4AE2CC03BF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1932F9EE-C502-4A45-907F-C483E87BEEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="252" windowWidth="11616" windowHeight="11988" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>asdasd</t>
+  </si>
+  <si>
+    <t>das</t>
+  </si>
+  <si>
+    <t>asd</t>
   </si>
 </sst>
 </file>
@@ -345,20 +351,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C6:D10"/>
+  <dimension ref="A2:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>0</v>
       </c>
